--- a/projeto/Documentos/BACKLOG-SPRINT2.xlsx
+++ b/projeto/Documentos/BACKLOG-SPRINT2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BandTec\PESQ. &amp; INOV\Luminous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\Grupo-02-CCO-Luminous-\projeto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -235,8 +235,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,24 +258,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.749992370372631"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.749992370372631"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -277,15 +302,141 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -293,47 +444,132 @@
       <left/>
       <right/>
       <top style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF3D85C6"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF3D85C6"/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF3D85C6"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color rgb="FF3D85C6"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF3D85C6"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -344,7 +580,20 @@
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -353,11 +602,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF3D85C6"/>
-      </left>
+      <left/>
       <right style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -370,127 +617,49 @@
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF3D85C6"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF3D85C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF3D85C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF3D85C6"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF3D85C6"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF3D85C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF3D85C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF3D85C6"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF3D85C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color rgb="FF3D85C6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -501,46 +670,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,92 +682,188 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -872,19 +1101,19 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -905,15 +1134,15 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+    <row r="2" spans="1:27" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -934,66 +1163,66 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:27" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="25" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="67" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="2"/>
@@ -1017,24 +1246,24 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="55" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="2"/>
@@ -1058,24 +1287,24 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="33" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="69" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="2"/>
@@ -1099,24 +1328,24 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="2"/>
@@ -1140,24 +1369,24 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="69" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="2"/>
@@ -1181,24 +1410,24 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="18" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="2"/>
@@ -1222,24 +1451,24 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1259,24 +1488,24 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1296,17 +1525,17 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="2"/>
@@ -1333,17 +1562,17 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="63" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="2"/>
@@ -1370,17 +1599,17 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="2"/>
@@ -1407,22 +1636,22 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="50" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1444,17 +1673,17 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2"/>
@@ -1481,22 +1710,22 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="55" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1518,17 +1747,17 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="42" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="2"/>
@@ -1555,17 +1784,17 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="2"/>
@@ -1593,16 +1822,16 @@
     </row>
     <row r="20" spans="1:27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="46" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2"/>
